--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W20_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W20_H100_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5684931506849316</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5833333333333334</v>
-      </c>
+        <v>0.551829268292683</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9171270718232044</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5701219512195121</v>
+        <v>0.551829268292683</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7019027484143764</v>
+        <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4786585365853658</v>
+        <v>0.4817073170731707</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08304814618907611</v>
+        <v>0.08503843759420615</v>
       </c>
       <c r="J2" t="n">
-        <v>1123.78607148641</v>
+        <v>1071.00719736937</v>
       </c>
       <c r="K2" t="n">
-        <v>1926439.492229152</v>
+        <v>1403168.6174816</v>
       </c>
       <c r="L2" t="n">
-        <v>1387.96235259792</v>
+        <v>1184.554185118435</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6365948127846649</v>
+        <v>0.7353050764441407</v>
       </c>
     </row>
   </sheetData>
